--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-04-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1319,8 +1319,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Substance|4.0.1|Medication|4.0.1)</t>
+    <t>CodeableConcept(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
+Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1332,30 +1332,10 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference</t>
-  </si>
-  <si>
-    <t>itemReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
-</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemCodeableConcept</t>
-  </si>
-  <si>
-    <t>itemCodeableConcept</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1766,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN127"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1785,7 +1765,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -15175,14 +15155,16 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC117" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>419</v>
@@ -15203,25 +15185,23 @@
         <v>166</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
         <v>77</v>
       </c>
@@ -15242,17 +15222,17 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>429</v>
+        <v>236</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15301,10 +15281,10 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>87</v>
@@ -15316,28 +15296,26 @@
         <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C119" t="s" s="2">
         <v>431</v>
       </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15358,18 +15336,16 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>160</v>
+        <v>402</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15393,11 +15369,13 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y119" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z119" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>77</v>
@@ -15415,10 +15393,10 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>87</v>
@@ -15430,24 +15408,24 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>166</v>
+        <v>434</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15461,7 +15439,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>77</v>
@@ -15470,18 +15448,16 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>77</v>
       </c>
@@ -15529,7 +15505,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15544,10 +15520,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15558,10 +15534,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15584,13 +15560,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>402</v>
+        <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15641,7 +15617,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>437</v>
+        <v>174</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15653,41 +15629,41 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>405</v>
+        <v>175</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>77</v>
@@ -15696,15 +15672,17 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>443</v>
+        <v>177</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -15753,25 +15731,25 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>445</v>
+        <v>175</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -15782,42 +15760,46 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>172</v>
+        <v>416</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
       </c>
@@ -15865,25 +15847,25 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>174</v>
+        <v>418</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>77</v>
@@ -15894,21 +15876,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -15920,17 +15902,15 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>177</v>
+        <v>444</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -15979,75 +15959,71 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16095,259 +16071,35 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>130</v>
+        <v>451</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN126" t="s" s="2">
         <v>452</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN127">
+  <autoFilter ref="A1:AN125">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16357,7 +16109,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI126">
+  <conditionalFormatting sqref="A2:AI124">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$127</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1281,13 +1281,13 @@
 </t>
   </si>
   <si>
-    <t>Active or inactive ingredient</t>
-  </si>
-  <si>
-    <t>Identifies a particular constituent of interest in the product.</t>
-  </si>
-  <si>
-    <t>The ingredients need not be a complete list.  If an ingredient is not specified, this does not indicate whether an ingredient is present or absent.  If an ingredient is specified it does not mean that all ingredients are specified.  It is possible to specify both inactive and active ingredients.</t>
+    <t>Virkestoff(er) i legemiddelet</t>
+  </si>
+  <si>
+    <t>Virkestoff(er) som inngår i legemiddelet. Skal fylles ut hvis code ikke har verdi. Bør fylles ut hvis code.coding[LokaltLegemiddel] har verdi.</t>
+  </si>
+  <si>
+    <t>For legemidler identifisert med FEST-koder (FestLegemiddeldose, FestLegemiddelMerkevare, FestLegemiddelpakning, FestVirkestoff, Varenummer) eller SNOMED CT er ingredient valgfritt, da virkestoffinformasjon kan hentes fra disse katalogene. For lokale legemidler anbefales det å oppgi ingredient for bedre sporbarhet.</t>
   </si>
   <si>
     <t>.scopesRole[typeCode=INGR]</t>
@@ -1319,8 +1319,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
-Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
+    <t>CodeableConcept
+Reference(Substance|4.0.1|Medication|4.0.1)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1332,10 +1332,30 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
+</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1746,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,7 +1785,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -15155,16 +15175,14 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>419</v>
@@ -15185,23 +15203,25 @@
         <v>166</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
       </c>
@@ -15222,17 +15242,17 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15281,10 +15301,10 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>87</v>
@@ -15296,26 +15316,28 @@
         <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="B119" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15336,16 +15358,18 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>402</v>
+        <v>160</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15369,13 +15393,11 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>77</v>
@@ -15393,10 +15415,10 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>87</v>
@@ -15408,24 +15430,24 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>434</v>
+        <v>166</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15439,7 +15461,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>77</v>
@@ -15448,16 +15470,18 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
       </c>
@@ -15505,7 +15529,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15520,10 +15544,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15534,10 +15558,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15560,13 +15584,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>172</v>
+        <v>438</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15617,7 +15641,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15629,41 +15653,41 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>175</v>
+        <v>405</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>77</v>
@@ -15672,17 +15696,15 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -15731,25 +15753,25 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -15760,46 +15782,42 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>416</v>
+        <v>172</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>77</v>
       </c>
@@ -15847,25 +15865,25 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>418</v>
+        <v>174</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>77</v>
@@ -15876,21 +15894,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -15902,15 +15920,17 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -15959,71 +15979,75 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>443</v>
+        <v>181</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16071,35 +16095,259 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK125" t="s" s="2">
+      <c r="AK126" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL125" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN125" t="s" s="2">
+      <c r="AL126" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>452</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN125">
+  <autoFilter ref="A1:AN127">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16109,7 +16357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI124">
+  <conditionalFormatting sqref="A2:AI126">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -12350,7 +12350,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>376</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>388</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>398</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>442</v>
       </c>
@@ -16348,12 +16348,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN127">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-lmdi-medication.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -1279,9 +1279,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>Virkestoff(er) i legemiddelet</t>
   </si>
   <si>
     <t>Virkestoff(er) som inngår i legemiddelet. Skal fylles ut hvis code ikke har verdi. Bør fylles ut hvis code.coding[LokaltLegemiddel] har verdi.</t>
@@ -14678,10 +14675,10 @@
         <v>408</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14749,7 +14746,7 @@
         <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>77</v>
@@ -14760,10 +14757,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14872,10 +14869,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14986,14 +14983,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15015,10 +15012,10 @@
         <v>132</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>149</v>
@@ -15073,7 +15070,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15102,10 +15099,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15128,17 +15125,17 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -15175,7 +15172,7 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
@@ -15185,7 +15182,7 @@
         <v>136</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>87</v>
@@ -15203,24 +15200,24 @@
         <v>166</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -15242,17 +15239,17 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15301,7 +15298,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>87</v>
@@ -15319,24 +15316,24 @@
         <v>166</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -15361,14 +15358,14 @@
         <v>160</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -15415,7 +15412,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>87</v>
@@ -15433,21 +15430,21 @@
         <v>166</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15473,14 +15470,14 @@
         <v>236</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15529,7 +15526,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15547,7 +15544,7 @@
         <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15558,10 +15555,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15587,10 +15584,10 @@
         <v>402</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15641,7 +15638,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15656,7 +15653,7 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>405</v>
@@ -15665,15 +15662,15 @@
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15699,10 +15696,10 @@
         <v>407</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15753,7 +15750,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -15771,7 +15768,7 @@
         <v>352</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -15782,10 +15779,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15894,10 +15891,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16008,14 +16005,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -16037,10 +16034,10 @@
         <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>149</v>
@@ -16095,7 +16092,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16124,10 +16121,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16153,10 +16150,10 @@
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16207,7 +16204,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16231,15 +16228,15 @@
         <v>77</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16262,13 +16259,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16319,7 +16316,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -16337,13 +16334,13 @@
         <v>352</v>
       </c>
       <c r="AL127" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
